--- a/Desktop/Amir/mycpd/2025/Mycpd Record.xlsx
+++ b/Desktop/Amir/mycpd/2025/Mycpd Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Amir\mycpd\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30113D72-D135-46B0-856C-596F16E96B59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07775408-5743-4E6E-BD13-68BA1E6F27B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10515" windowHeight="4470" xr2:uid="{754482A3-6E63-42E2-BFFD-94407F2A2A68}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>TARIKH</t>
   </si>
@@ -66,85 +66,12 @@
     <t>NOTES</t>
   </si>
   <si>
-    <t>CME OSH INSIGHT BIL. 1/2024: STRATEGI PEMATUHAN AKKP (PINDAAN) 2022 UNTUK PENGAMAL PERUBATAN DAN KESIHATAN</t>
-  </si>
-  <si>
-    <t>SESI FACEBOOK LIVE NUTRITIONISTKKM ‘GIGI, GULA DAN OBESITI’</t>
-  </si>
-  <si>
-    <t>FB LIVE: ANAK ANDA OBES? APA NAK BUAT?</t>
-  </si>
-  <si>
-    <t>FB LIVE: CONTINUOUS NUTRITION EDUCATION (CNE) SIRI 3/2024</t>
-  </si>
-  <si>
-    <t>FB LIVE: JANGAN SAKIT PERUT KETIKA RAMADHAN</t>
-  </si>
-  <si>
-    <t>FB LIVE: Makan Secara Sihat</t>
-  </si>
-  <si>
-    <t>FB LIVE: Peluh-peluh Ramadhan</t>
-  </si>
-  <si>
-    <t>KURSUS PENGUKUHAN PERKHIDMATAN PENOLONG PEGAWAI FARMASI KEMENTERIAN KESIHATAN MALAYSIA SECARA DALAM TALIAN TAHUN 2024</t>
-  </si>
-  <si>
-    <t>SESI PHARMTALKS BIL 2/2024: BUAH PINGGANG DAN UBAT</t>
-  </si>
-  <si>
-    <t>CERAMAH KHAS PALESTIN: TANGISAN AL-QUDS; MENJENTIK HATI YANG LALI DIULIT DUNIAWI</t>
-  </si>
-  <si>
     <t>OFFLINE</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>HARI BERSAMA LEMBAGA HASIL DALAM NEGERI (LHDN) SECARA DALAM TALIAN</t>
-  </si>
-  <si>
-    <t>WEBINAR: SYAWAL DIRAI, PEMBAZIRAN DIHINDARI</t>
-  </si>
-  <si>
-    <t>“All Things Chromatography” Seminar Talk!</t>
-  </si>
-  <si>
-    <t>PROGRAM ISM KOLOKIUM SIRI 2/2024: ''JENAYAH DALAM MASYARAKAT/KOMUNITI''</t>
-  </si>
-  <si>
-    <t>BookDoc: Oral Cancer Awareness Month 2024</t>
-  </si>
-  <si>
-    <t>BookDoc: Dental Kulai Virtual Fun Run 2024</t>
-  </si>
-  <si>
-    <t>FB Live: Jangan Sakit Perut Ketika Ramadhan</t>
-  </si>
-  <si>
-    <t>Bengkel Latihan Teori untuk Verifikasi Alat Radas Makmal</t>
-  </si>
-  <si>
-    <t>Kelab Jurnal NPRA Bil 02/2024 - Overview Of Mental Health And Mental Illness &amp; Exploring The World Of Geriatric Care</t>
-  </si>
-  <si>
-    <t>Kuiz JF-Think@Pro Siri 1/2024 - Rawatan Terapi Gantian Methadone Siri 1</t>
-  </si>
-  <si>
-    <t>Taklimat Pengenalan Dan Kesedaran EKSA Siri 01/2024 - Pengenalan Dan Kesedaran Ekosistem Kondusif Sektor Awam (EKSA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- User Training ICP-MS Analysis : ICP-MS Instruments 8900 Using Oxygen Gas Mode</t>
-  </si>
-  <si>
-    <t>User Training Ujian Pengecaian Bentuk Dosej Susulan Maklumbalas Dari MHRA (Medicines And Healthcare Products Regulatory Agency)</t>
-  </si>
-  <si>
-    <t>User Training Pemerhatian Dan Penentuan Rupa Bentuk Fizikal Produk Tradisional</t>
-  </si>
-  <si>
     <t>9.00am</t>
   </si>
   <si>
@@ -155,6 +82,21 @@
   </si>
   <si>
     <t>Dewan Anggerik, NPRA</t>
+  </si>
+  <si>
+    <t>Fun Bond Day Challenge</t>
+  </si>
+  <si>
+    <t>Zumba Fun Bond Day NPRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00am </t>
+  </si>
+  <si>
+    <t>Perkarangan Pakir NPRA (berhadapan Blok D)</t>
+  </si>
+  <si>
+    <t>b1</t>
   </si>
 </sst>
 </file>
@@ -298,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -327,104 +269,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -743,9 +682,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0CC750-9B06-43E3-97F8-680F73840EC5}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,464 +699,440 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="16"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="16">
+        <v>45667</v>
+      </c>
+      <c r="D3" s="17">
+        <v>45667</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="16">
+        <v>45667</v>
+      </c>
+      <c r="D4" s="17">
+        <v>45667</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="23">
-        <v>45667</v>
-      </c>
-      <c r="D3" s="24">
-        <v>45667</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="22">
+      <c r="J4" s="22">
         <v>2</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" spans="1:12" s="43" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
-    </row>
-    <row r="5" spans="1:12" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="33"/>
-    </row>
-    <row r="6" spans="1:12" s="43" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="33"/>
-    </row>
-    <row r="7" spans="1:12" s="43" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="33"/>
-    </row>
-    <row r="8" spans="1:12" s="43" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="33"/>
-    </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="33"/>
-    </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="33"/>
-    </row>
-    <row r="11" spans="1:12" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="33"/>
-    </row>
-    <row r="12" spans="1:12" s="6" customFormat="1" ht="84" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="33"/>
-    </row>
-    <row r="13" spans="1:12" ht="36" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="33"/>
-    </row>
-    <row r="14" spans="1:12" ht="48" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="33"/>
-    </row>
-    <row r="15" spans="1:12" ht="48" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="33"/>
-    </row>
-    <row r="17" spans="1:12" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="33"/>
-    </row>
-    <row r="18" spans="1:12" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="33"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="25"/>
+    </row>
+    <row r="6" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="25"/>
+    </row>
+    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="1:12" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" spans="1:12" s="9" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="40"/>
-    </row>
-    <row r="21" spans="1:12" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="33"/>
-    </row>
-    <row r="22" spans="1:12" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="38"/>
-    </row>
-    <row r="23" spans="1:12" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="33"/>
-    </row>
-    <row r="24" spans="1:12" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="33"/>
-    </row>
-    <row r="25" spans="1:12" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="33"/>
-    </row>
-    <row r="26" spans="1:12" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="33"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="21" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="30"/>
+    </row>
+    <row r="23" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
     </row>
     <row r="27" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -1416,8 +1331,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{7C7A23DE-5967-4A91-A430-D113BA72E629}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{305EF71E-1095-4674-B4CA-EE460ACDD299}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Desktop/Amir/mycpd/2025/Mycpd Record.xlsx
+++ b/Desktop/Amir/mycpd/2025/Mycpd Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Amir\mycpd\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07775408-5743-4E6E-BD13-68BA1E6F27B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF463AE-AA69-49FA-9FC9-2A7B223F8158}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10515" windowHeight="4470" xr2:uid="{754482A3-6E63-42E2-BFFD-94407F2A2A68}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>TARIKH</t>
   </si>
@@ -96,7 +96,16 @@
     <t>Perkarangan Pakir NPRA (berhadapan Blok D)</t>
   </si>
   <si>
-    <t>b1</t>
+    <t>BookDoc - Larian Tahun Baru Cina 2025</t>
+  </si>
+  <si>
+    <t>Dalam Talian</t>
+  </si>
+  <si>
+    <t>BookDoc</t>
+  </si>
+  <si>
+    <t>Pejabat Kesihatan Pergigian Daerah Manjung</t>
   </si>
 </sst>
 </file>
@@ -684,7 +693,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J4" s="22">
         <v>2</v>
@@ -826,18 +835,40 @@
       </c>
       <c r="L4" s="25"/>
     </row>
-    <row r="5" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="26"/>
+    <row r="5" spans="1:12" s="36" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="21">
+        <v>45675</v>
+      </c>
+      <c r="D5" s="34">
+        <v>45685</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="22">
+        <v>2</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -1332,8 +1363,9 @@
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{7C7A23DE-5967-4A91-A430-D113BA72E629}"/>
     <hyperlink ref="K4" r:id="rId2" xr:uid="{305EF71E-1095-4674-B4CA-EE460ACDD299}"/>
+    <hyperlink ref="K5" r:id="rId3" xr:uid="{7381B230-02A5-41D5-8115-40FA456A0E36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>